--- a/data/data_sheet.xlsx
+++ b/data/data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
   <si>
     <t>TestName</t>
   </si>
@@ -231,9 +231,6 @@
     <t>FDIC Check</t>
   </si>
   <si>
-    <t>For Ra testing</t>
-  </si>
-  <si>
     <t>Step</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>entertext</t>
-  </si>
-  <si>
     <t>selectValue</t>
   </si>
   <si>
@@ -264,12 +258,6 @@
     <t>mouse hover</t>
   </si>
   <si>
-    <t>//name='q'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI </t>
-  </si>
-  <si>
     <t>movetoelement</t>
   </si>
   <si>
@@ -336,9 +324,6 @@
     <t>Execute Script 2</t>
   </si>
   <si>
-    <t>https://rediffmail.com</t>
-  </si>
-  <si>
     <t>submit</t>
   </si>
   <si>
@@ -352,6 +337,51 @@
   </si>
   <si>
     <t>//textarea[@name='q']</t>
+  </si>
+  <si>
+    <t>http://register.rediff.com/register/register.php?FormName=user_details</t>
+  </si>
+  <si>
+    <t>Rediff mail create user account</t>
+  </si>
+  <si>
+    <t>//input[starts-with(@name, 'name')]</t>
+  </si>
+  <si>
+    <t>sheldon</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>sendkeys</t>
+  </si>
+  <si>
+    <t>sheldon_test</t>
+  </si>
+  <si>
+    <t>//input[@id='Register']</t>
+  </si>
+  <si>
+    <t>Element Details</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Login Field</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Enter Email ID</t>
+  </si>
+  <si>
+    <t>//textarea[@name='q1']</t>
+  </si>
+  <si>
+    <t>//input[starts-with(@name, 'login1')]</t>
   </si>
 </sst>
 </file>
@@ -840,7 +870,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1208,7 +1238,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1217,7 +1247,7 @@
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1269,16 +1299,16 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>68</v>
@@ -1287,302 +1317,305 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
       <c r="E3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
         <v>91</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>99</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1"/>
+    <hyperlink ref="G15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1591,105 +1624,134 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>75</v>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>